--- a/Python3のインストール手順書.xlsx
+++ b/Python3のインストール手順書.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User101dc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EA4C05-647F-4EF6-92C3-4EAD6EB1534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1BB23-C5BB-4EF3-BF74-F09BA2CEEA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E4C63E0-3D52-48B7-83D6-13C68144BFED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3E4C63E0-3D52-48B7-83D6-13C68144BFED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="変更管理" sheetId="3" r:id="rId2"/>
+    <sheet name="python3コンパイラ手順書" sheetId="1" r:id="rId3"/>
+    <sheet name="VSC環境構築手順書" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Python3のコンパイラのインストール、環境構築手順書</t>
-    <rPh sb="21" eb="25">
-      <t>カンキョウコウチク</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>テジュンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>①Python3のコンパイラのインストール</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +78,169 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)コマンドプロンプトから「python --version」を実行して、Pythonのバージョンが表示されることを確認する。</t>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python3インストール、VSCへの実行手順書</t>
+    <rPh sb="19" eb="24">
+      <t>ジッコウテジュンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python3のコンパイラのインストール、コンパイラ実行確認手順書</t>
+    <rPh sb="26" eb="30">
+      <t>ジッコウカクニン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テジュンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSC環境構築手順書</t>
+    <rPh sb="3" eb="7">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テジュンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.VSCodeを起動する。</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,VSCodeを開いたら左側のメニューから「拡張機能」をクリックします。</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクチョウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.検索ボックスに「python extension」と入力してください。</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4「Python Extension」(Microsoft)の「インストール」ボタンをクリックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.再読み込みするため、VSCodeを再起動します。</t>
+    <rPh sb="2" eb="4">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.再読み込みしたら「Ctrl+shift+p」のキーを同時に押下します。</t>
+    <rPh sb="2" eb="4">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.Python Select interpreter」を検索し、「Python Select interpreter」をクリックします。</t>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.「Python 3.11.2 64-bit」をクリックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.作ったPythonファイル（拡張子py）を右クリックします。</t>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.「ターミナルでPythonファイルを実行する」をクリックします。</t>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +282,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -143,6 +307,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -152,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +578,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,6 +790,363 @@
         <a:xfrm>
           <a:off x="670560" y="10744200"/>
           <a:ext cx="7802064" cy="4791744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35023</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBC8872-7FBB-2603-E9F3-ECD530F61626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="16459201"/>
+          <a:ext cx="7411183" cy="3909060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D7BECB-09BD-4E09-4475-2E7F1A33B384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678181" y="1828801"/>
+          <a:ext cx="10073639" cy="4756996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95034B76-AF76-5E5B-08A3-E710C0C514F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="7543800"/>
+          <a:ext cx="11414760" cy="2859660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3005</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DFCC2E-EA83-BE4E-F351-6A4829A22588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="13030201"/>
+          <a:ext cx="11402525" cy="7033260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656865</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B4BF6-AFD1-AB04-DE89-2CCA954F0E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="20345401"/>
+          <a:ext cx="8033025" cy="3116580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>46561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BD70FE-4923-6DB7-0EA5-071A8E138D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670561" y="24231600"/>
+          <a:ext cx="6705600" cy="1189561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17633</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FE60AD-8077-ADD6-EA8B-32F2B0F45D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="26060400"/>
+          <a:ext cx="8064353" cy="4884420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>24781</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172B58F5-8255-F08E-5624-AD99E2A045E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="32004001"/>
+          <a:ext cx="9412621" cy="5646419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,47 +1454,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75DB57F-D8E0-4CE1-9A96-5E175241E775}">
+  <dimension ref="B2:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E06A3A5-1567-4CF7-852B-3CF03A505E82}">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.8984375" customWidth="1"/>
+    <col min="5" max="5" width="33.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD94D97-A82C-4F32-9EC8-581CABDFF8C9}">
-  <dimension ref="B3:B46"/>
+  <dimension ref="B3:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
         <v>6</v>
       </c>
     </row>
@@ -665,4 +1787,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EB1AB-3716-478D-BF76-275D01F6C389}">
+  <dimension ref="B3:B139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>